--- a/ROIs and factors all regions inc. KSA.xlsx
+++ b/ROIs and factors all regions inc. KSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2023\Nestle CPW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EF3A6-0070-48B8-98C0-06A9BE571323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD59FF14-3506-4A0B-8340-457344814308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4793CDEF-7E31-40C8-918D-BBDA82C5E246}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4793CDEF-7E31-40C8-918D-BBDA82C5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">factors!$A$1:$G$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ROIs!$A$1:$F$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ROIs!$A$1:$F$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="163">
   <si>
     <t>Region</t>
   </si>
@@ -498,6 +498,39 @@
   </si>
   <si>
     <t>OtherChannels</t>
+  </si>
+  <si>
+    <t>France24</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Digital Sponsoring</t>
+  </si>
+  <si>
+    <t>KitKat</t>
+  </si>
+  <si>
+    <t>Chocapic_Drive</t>
+  </si>
+  <si>
+    <t>Chocapic_HM_SMDP_PROXI</t>
+  </si>
+  <si>
+    <t>Chocapic_SM</t>
+  </si>
+  <si>
+    <t>KitKat_Total</t>
+  </si>
+  <si>
+    <t>Lion_Drive</t>
+  </si>
+  <si>
+    <t>Lion_HM_SMDP_PROXI</t>
+  </si>
+  <si>
+    <t>Lion_SM</t>
   </si>
 </sst>
 </file>
@@ -901,11 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52EF69-901D-4240-BDDF-385C06ADCACF}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,6 +4053,753 @@
         <v>6.7011954862389214E-2</v>
       </c>
     </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.56658127221446852</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1.0055635102937663</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.39752791739590609</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0.49873123115524759</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2.7747225549897911</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.2997614913385695</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0.25935299952001201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.20572534009043397</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0.39824444230349892</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.52543212096840797</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0.33416872500205957</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.19947019425309881</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0.36452934272687021</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.36722450095469128</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.63233825065254134</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.33971217523238623</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0.32234960145859848</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" t="s">
+        <v>39</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.23570959865009847</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.34109216556709149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.22257847949914558</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.18440350687649185</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0.38642391833214612</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.23532210369136317</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.3982796819447757</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.85229376360413744</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.42085580999822525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>152</v>
+      </c>
+      <c r="B170" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.8227152401598834</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.24174598303207084</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>37</v>
+      </c>
+      <c r="D171" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.69736308999332286</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.28426893709970119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>152</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.16630684864721118</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.29278149433068607</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" t="s">
+        <v>36</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.18594559714006781</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.28616483678798998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.19451588038545378</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0.29182769259413488</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.53806986683453484</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0.29360836462096884</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1.3180530564381947</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0.52617886405611736</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.67167154447805433</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0.28271488724204363</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>44</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.27102624835497108</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0.31929149505410698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" t="s">
+        <v>96</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.72828758623123313</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0.25866203416089489</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" t="s">
+        <v>153</v>
+      </c>
+      <c r="D180" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.87838075538811411</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.10515802650255203</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.21038394735453753</v>
+      </c>
+      <c r="F181" s="3">
+        <v>9.7964927985439862E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.52100452831416999</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0.7703177426620097</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" t="s">
+        <v>154</v>
+      </c>
+      <c r="D183" t="s">
+        <v>154</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.47087455775114695</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0.27915414824135187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.10387676261696011</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" ref="D185:D191" si="0">VLOOKUP(C185,$C$2:$D$184,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.54072400773841567</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>152</v>
+      </c>
+      <c r="B186" t="s">
+        <v>155</v>
+      </c>
+      <c r="C186" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="0"/>
+        <v>Social</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.55698737026565415</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>152</v>
+      </c>
+      <c r="B187" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" t="s">
+        <v>37</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="0"/>
+        <v>Social</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1.0081828569396498E-2</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>152</v>
+      </c>
+      <c r="B188" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="0"/>
+        <v>OLV</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0.20349046478957358</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>152</v>
+      </c>
+      <c r="B189" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="0"/>
+        <v>Social</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.73696567510388022</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>152</v>
+      </c>
+      <c r="B190" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" t="s">
+        <v>39</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="0"/>
+        <v>Print</v>
+      </c>
+      <c r="E190" s="3">
+        <v>3.49840256698588E-3</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>152</v>
+      </c>
+      <c r="B191" t="s">
+        <v>155</v>
+      </c>
+      <c r="C191" t="s">
+        <v>55</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="0"/>
+        <v>OOH</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.20875208025856123</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>152</v>
+      </c>
+      <c r="B192" t="s">
+        <v>155</v>
+      </c>
+      <c r="C192" t="s">
+        <v>142</v>
+      </c>
+      <c r="D192" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1.1604548212938645E-3</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
     <sortCondition ref="A2:A76"/>
@@ -4032,11 +4812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C07887-197A-4488-8919-97820D408368}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,6 +5906,236 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E48">
+        <v>3.2</v>
+      </c>
+      <c r="F48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G48">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E49">
+        <v>3.32</v>
+      </c>
+      <c r="F49">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="G49">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>2023</v>
+      </c>
+      <c r="D50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E50">
+        <v>3.94</v>
+      </c>
+      <c r="F50">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="G50">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>2024</v>
+      </c>
+      <c r="D51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E51">
+        <v>3.94</v>
+      </c>
+      <c r="F51">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="G51">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>2021</v>
+      </c>
+      <c r="D52">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E52">
+        <v>3.1</v>
+      </c>
+      <c r="F52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G52">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53">
+        <v>1.05</v>
+      </c>
+      <c r="E53">
+        <v>3.25</v>
+      </c>
+      <c r="F53">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="G53">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54">
+        <v>2023</v>
+      </c>
+      <c r="D54">
+        <v>1.08</v>
+      </c>
+      <c r="E54">
+        <v>3.8</v>
+      </c>
+      <c r="F54">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="G54">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>2024</v>
+      </c>
+      <c r="D55">
+        <v>1.08</v>
+      </c>
+      <c r="E55">
+        <v>3.8</v>
+      </c>
+      <c r="F55">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="G55">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56">
+        <v>2023</v>
+      </c>
+      <c r="D56">
+        <v>1.26</v>
+      </c>
+      <c r="E56">
+        <v>6.41</v>
+      </c>
+      <c r="F56">
+        <v>0.5585</v>
+      </c>
+      <c r="G56">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57">
+        <v>2024</v>
+      </c>
+      <c r="D57">
+        <v>1.26</v>
+      </c>
+      <c r="E57">
+        <v>6.41</v>
+      </c>
+      <c r="F57">
+        <v>0.5585</v>
+      </c>
+      <c r="G57">
+        <v>0.97145899999999996</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G41" xr:uid="{B6C07887-197A-4488-8919-97820D408368}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5135,11 +6145,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2782C3AA-4251-4A08-A851-A05AD08014CB}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:D35"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5533,6 +6543,83 @@
         <v>148</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ROIs and factors all regions inc. KSA.xlsx
+++ b/ROIs and factors all regions inc. KSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2023\Nestle CPW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.browne\Documents\Blueprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD59FF14-3506-4A0B-8340-457344814308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226CABD4-AEE3-47F9-98AA-35E68B5BA506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4793CDEF-7E31-40C8-918D-BBDA82C5E246}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{4793CDEF-7E31-40C8-918D-BBDA82C5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIs" sheetId="1" r:id="rId1"/>
@@ -937,22 +937,22 @@
   <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H179" sqref="H179"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1.0196208737759505</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0.49882579213398642</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0.87336643998377994</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.48383466484331994</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.59640694876293776</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.48138651880534761</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0.64847995122552826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0.61810285826039113</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0.84414253768366576</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1.2875441948768933</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.9932422164027308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0.10358736198926344</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0.1402968536960881</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.98083571638165257</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.20099369402148981</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.16291275790343507</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0.15062450925274481</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>5.9309314806656473E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0.29810003896056059</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.44321120097715078</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1.0321837128910814</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.38903346390644067</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1.1760666533528608</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0.56079033610275941</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1.5748988927836862</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.16928032857198816</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.63979005698032287</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0.38494838597340836</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0.61567987912045186</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1.5316817596370276</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>1.033847264867837</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.22939201748168264</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0.38211768585768302</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>1.7285585069494991</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0.20844356563661012</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0.31719468604912615</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0.1697046421197162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.25065196098358716</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.71480922480616094</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.27905374741853645</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0.2483482943311302</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>2.044317306059904</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0.68875180577869988</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>7.3405559066280726E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.2586412395550014</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.70287620970320552</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0.47318190816021038</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.21738811318171344</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0.36960002588861435</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>0.61645961475031286</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>0.56104860276766522</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0.56304131308448968</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>2.0328907099021474</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>1.2450644557812964</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.57193779446087067</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0.45182650257921603</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0.5274099842547908</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.46550804153530806</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0.34140664984683433</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.32724566969080077</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0.39884922088237551</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.37201825960573559</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0.29795856163559903</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0.35000857129483864</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0.10486013340990338</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>3.055793589963244</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0.43139446262943743</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0.35163029908218635</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0.34913747570225978</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>8.5737496022029999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1.5299762824186334</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>3.8056374204689401E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1.9339712702166608E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>7.9630886985457769E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>6.7708081236241054E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>5.8677021848695743E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>7.3125318126076224E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>7.5594855134865999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>5.6938462825439507E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>7.4505612381881997E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>7.4506193650944724E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>6.0594382171664024E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0.20299039429326948</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0.19608940368046734</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1.152488279844583</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0.1809486366212037</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0.1227489825766806</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0.32889350256355743</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>0.46015987644826323</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.31337952971432398</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0.50407900807805994</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.32483739627021319</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0.37306326436817439</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>6.0323865363180298</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>0.35045208677593004</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0.38781118850215474</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.16658133479275644</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0.35687778299371031</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0.46663047901906662</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0.2437711018326261</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0.65143796862315373</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1.7895147814451939</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0.28124742850700135</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1.0537648253982792</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0.45585719199862657</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1.4784774038942543</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>1.5194392408887212</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1.5691186083096673</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>1.5444073317324702</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1.4219783649838071</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0.84820370878365092</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.4960002713447722</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0.8482800960373289</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0.45214008929116367</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0.44276055083802796</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0.87450866885114087</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0.90339301773920322</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1.5174583297381721</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>1.3634703621545017</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>8.541658306773332</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1.4138529544022762</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1.4021983906187023</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0.48268282920438638</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0.30938846118998276</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0.27419712225227499</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0.33025352076915337</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0.22224869763759111</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0.32994768935182084</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0.60302756629879839</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0.10703211601617581</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>7.8088800444634177E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1.2298001614011986E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0.53646056948314935</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>5.0117939018231319E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>145</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0.14241023021417129</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>8.4709163355103451E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>9.2485709051077516E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>145</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>6.7011954862389214E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>1.0055635102937663</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0.49873123115524759</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0.25935299952001201</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0.39824444230349892</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0.33416872500205957</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0.36452934272687021</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>0.63233825065254134</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0.32234960145859848</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0.34109216556709149</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0.38642391833214612</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0.3982796819447757</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0.42085580999822525</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0.24174598303207084</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>0.28426893709970119</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>152</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.29278149433068607</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>152</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>0.28616483678798998</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>152</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0.29182769259413488</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>152</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0.29360836462096884</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>152</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0.52617886405611736</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>152</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0.28271488724204363</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>152</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0.31929149505410698</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>152</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.25866203416089489</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>152</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0.10515802650255203</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>152</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>9.7964927985439862E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>152</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0.7703177426620097</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>152</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0.27915414824135187</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>152</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>152</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>152</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>152</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>152</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>152</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>152</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>152</v>
       </c>
@@ -4819,13 +4819,13 @@
       <selection pane="bottomLeft" activeCell="D48" sqref="D48:G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0.21385899999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>0.21385899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>0.21385899999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.21385899999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>130</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0.21385899999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0.21385899999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0.24013699999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0.97145899999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -6152,13 +6152,13 @@
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
